--- a/PC2/MDGE/Argon/Argon.xlsx
+++ b/PC2/MDGE/Argon/Argon.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vinma\Documents\Chemie Studium\5. Semester\Protokolle\PC2\MDGE\Argon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Studium\5. Semester\AC II lab\Protokolle\PC2\MDGE\Argon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EBE0CC5-3C8E-420F-BB3A-A289904F733D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD5ABFA-9591-4F6F-8848-662453F963F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BB391474-3FBC-4011-8610-F4BFDA75DF25}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>t / s</t>
   </si>
@@ -64,13 +64,22 @@
   <si>
     <t>p N / bar</t>
   </si>
+  <si>
+    <t>T (aus pN2) K</t>
+  </si>
+  <si>
+    <t>1/T 1/K</t>
+  </si>
+  <si>
+    <t>Ln pAr</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -103,7 +112,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -119,6 +128,1267 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>H_sub</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.5211067366579175E-2"/>
+                  <c:y val="0.16577026829979585"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="de-DE"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$K$2:$K$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>1.5651747744648028E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5599449520155384E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5603120759560933E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5570422296715083E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5430450147161344E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5322638979455769E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5245832994421555E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5176400334812471E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5099298168031385E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5020133684250005E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4943464978934973E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.4867488400156531E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.479075378509968E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.471553173223898E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4643182760605595E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.4564223303587299E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.4493183577899868E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.4417989766500463E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.4346952636355303E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.4279294461686621E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.420888222297243E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.4141456974085666E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.4078943171304058E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.4016357339010604E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.3954103340265946E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.38897842964079E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.3830846697364957E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.3763421318286766E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.3713456258383067E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.3659562491644121E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.3603121305345989E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.3552909950467866E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.3499995436021379E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.3447336682252163E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.3398274158209008E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.3350251966524595E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.3303402342185274E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.3257132323485413E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.3212116663145129E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.3169613110121889E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.312815134739201E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.3087677158064142E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.3040968522659607E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.3001768207115554E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.2961857812183928E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.2921460616125865E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$L$2:$L$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>-4.1733877695625532</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.0398563769380305</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.0398563769380305</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4.0118433407103566</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.8076629901039034</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3.7050088360438198</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3.6193533914653258</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3.5508581562165618</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3.486755270023802</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-3.4021978819957388</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-3.3639015969184585</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-3.2570970376883985</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-3.1772541501773812</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-3.1055471395611973</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-3.0344731018704216</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-2.9584364888102939</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-2.8735146408297418</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-2.8067661740413676</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-2.7364496756239078</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-2.6707544163585131</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-2.5996443272584235</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-2.528231774526374</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-2.4674597361842796</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-2.4146345968026686</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-2.3465369805232283</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-2.2886821878250543</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-2.2284056948197941</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-2.1663074747014979</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-2.1094884630321324</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-2.0533840073605463</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-1.9987836386623814</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1.9568699892916552</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-1.8991219875565544</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-1.8515094736338289</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-1.7999932741551585</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-1.7561992938295041</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-1.7076021612213317</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-1.6623114020411685</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1.6570537663757636</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-1.579879110192556</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-1.5385135740974016</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-1.4956628981752556</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-1.4524341636244353</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-1.4138711288901249</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-1.3775328554513178</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-1.3413209954771594</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-765E-4DED-8B3C-D7098F170FAF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1234507599"/>
+        <c:axId val="1234508559"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1234507599"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="1.2000000000000002E-2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>1/T [1/K]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1234508559"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1234508559"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Ln(p) [bar]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1234507599"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2625541-3356-D82F-A2AD-6F24D9B8A1FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -438,10 +1708,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0470E75E-7BBB-4868-AE4E-3077389C1B78}">
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:O47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -449,7 +1719,7 @@
     <col min="3" max="3" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -477,8 +1747,17 @@
       <c r="I1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -512,8 +1791,20 @@
         <f>G2*750.062</f>
         <v>108.3089528</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J2">
+        <f xml:space="preserve"> ((7.781845 - LOG(I2))-SQRT((7.781845 - LOG(I2))^2 -8.5608))/0.0125298</f>
+        <v>63.890628466200582</v>
+      </c>
+      <c r="K2">
+        <f xml:space="preserve"> 1/J2</f>
+        <v>1.5651747744648028E-2</v>
+      </c>
+      <c r="L2">
+        <f xml:space="preserve"> LN(F2)</f>
+        <v>-4.1733877695625532</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>30</v>
       </c>
@@ -547,8 +1838,20 @@
         <f t="shared" ref="I3:I46" si="5">G3*750.062</f>
         <v>112.50930000000002</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J3">
+        <f t="shared" ref="J3:J47" si="6" xml:space="preserve"> ((7.781845 - LOG(I3))-SQRT((7.781845 - LOG(I3))^2 -8.5608))/0.0125298</f>
+        <v>64.104826180433008</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K47" si="7" xml:space="preserve"> 1/J3</f>
+        <v>1.5599449520155384E-2</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L47" si="8" xml:space="preserve"> LN(F3)</f>
+        <v>-4.0398563769380305</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>60</v>
       </c>
@@ -582,8 +1885,20 @@
         <f t="shared" si="5"/>
         <v>112.20927520000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J4">
+        <f t="shared" si="6"/>
+        <v>64.089743033440428</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="7"/>
+        <v>1.5603120759560933E-2</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="8"/>
+        <v>-4.0398563769380305</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>90</v>
       </c>
@@ -617,8 +1932,20 @@
         <f t="shared" si="5"/>
         <v>114.9094984</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J5">
+        <f t="shared" si="6"/>
+        <v>64.224333864790012</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="7"/>
+        <v>1.5570422296715083E-2</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="8"/>
+        <v>-4.0118433407103566</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>120</v>
       </c>
@@ -652,8 +1979,20 @@
         <f t="shared" si="5"/>
         <v>127.2105152</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J6">
+        <f t="shared" si="6"/>
+        <v>64.806923353688717</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="7"/>
+        <v>1.5430450147161344E-2</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="8"/>
+        <v>-3.8076629901039034</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>150</v>
       </c>
@@ -687,8 +2026,20 @@
         <f t="shared" si="5"/>
         <v>137.56137080000002</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J7">
+        <f t="shared" si="6"/>
+        <v>65.262909433601891</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="7"/>
+        <v>1.5322638979455769E-2</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="8"/>
+        <v>-3.7050088360438198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>180</v>
       </c>
@@ -722,8 +2073,20 @@
         <f t="shared" si="5"/>
         <v>145.43702180000002</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J8">
+        <f t="shared" si="6"/>
+        <v>65.591693177138936</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="7"/>
+        <v>1.5245832994421555E-2</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="8"/>
+        <v>-3.6193533914653258</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>210</v>
       </c>
@@ -757,8 +2120,20 @@
         <f t="shared" si="5"/>
         <v>152.93764180000002</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J9">
+        <f t="shared" si="6"/>
+        <v>65.891777887945167</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="7"/>
+        <v>1.5176400334812471E-2</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="8"/>
+        <v>-3.5508581562165618</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>240</v>
       </c>
@@ -792,8 +2167,20 @@
         <f t="shared" si="5"/>
         <v>161.71336720000002</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J10">
+        <f t="shared" si="6"/>
+        <v>66.228243781371589</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="7"/>
+        <v>1.5099298168031385E-2</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="8"/>
+        <v>-3.486755270023802</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>270</v>
       </c>
@@ -827,8 +2214,20 @@
         <f t="shared" si="5"/>
         <v>171.23915460000003</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J11">
+        <f t="shared" si="6"/>
+        <v>66.5773035727766</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="7"/>
+        <v>1.5020133684250005E-2</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="8"/>
+        <v>-3.4021978819957388</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>300</v>
       </c>
@@ -862,8 +2261,20 @@
         <f t="shared" si="5"/>
         <v>180.98996060000005</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J12">
+        <f t="shared" si="6"/>
+        <v>66.918884034569501</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="7"/>
+        <v>1.4943464978934973E-2</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="8"/>
+        <v>-3.3639015969184585</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>330</v>
       </c>
@@ -897,8 +2308,20 @@
         <f t="shared" si="5"/>
         <v>191.19080380000005</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J13">
+        <f t="shared" si="6"/>
+        <v>67.260856244520198</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="7"/>
+        <v>1.4867488400156531E-2</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="8"/>
+        <v>-3.2570970376883985</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>360</v>
       </c>
@@ -932,8 +2355,20 @@
         <f t="shared" si="5"/>
         <v>202.06670280000003</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J14">
+        <f t="shared" si="6"/>
+        <v>67.609806405364395</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="7"/>
+        <v>1.479075378509968E-2</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="8"/>
+        <v>-3.1772541501773812</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>390</v>
       </c>
@@ -967,8 +2402,20 @@
         <f t="shared" si="5"/>
         <v>213.31763280000004</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J15">
+        <f t="shared" si="6"/>
+        <v>67.955410527856557</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="7"/>
+        <v>1.471553173223898E-2</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="8"/>
+        <v>-3.1055471395611973</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>420</v>
       </c>
@@ -1002,8 +2449,20 @@
         <f t="shared" si="5"/>
         <v>224.71857520000003</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J16">
+        <f t="shared" si="6"/>
+        <v>68.291164315062005</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="7"/>
+        <v>1.4643182760605595E-2</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="8"/>
+        <v>-3.0344731018704216</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>450</v>
       </c>
@@ -1037,8 +2496,20 @@
         <f t="shared" si="5"/>
         <v>237.84466020000005</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J17">
+        <f t="shared" si="6"/>
+        <v>68.661402613463849</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="7"/>
+        <v>1.4564223303587299E-2</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="8"/>
+        <v>-2.9584364888102939</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>480</v>
       </c>
@@ -1072,8 +2543,20 @@
         <f t="shared" si="5"/>
         <v>250.29568940000004</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J18">
+        <f t="shared" si="6"/>
+        <v>68.997953046345444</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="7"/>
+        <v>1.4493183577899868E-2</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="8"/>
+        <v>-2.8735146408297418</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>510</v>
       </c>
@@ -1107,8 +2590,20 @@
         <f t="shared" si="5"/>
         <v>264.17183640000007</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J19">
+        <f t="shared" si="6"/>
+        <v>69.357796488623819</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="7"/>
+        <v>1.4417989766500463E-2</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="8"/>
+        <v>-2.8067661740413676</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>540</v>
       </c>
@@ -1142,8 +2637,20 @@
         <f t="shared" si="5"/>
         <v>277.97297720000006</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J20">
+        <f t="shared" si="6"/>
+        <v>69.701212887954426</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="7"/>
+        <v>1.4346952636355303E-2</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="8"/>
+        <v>-2.7364496756239078</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>570</v>
       </c>
@@ -1177,8 +2684,24 @@
         <f t="shared" si="5"/>
         <v>291.77411799999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J21">
+        <f t="shared" si="6"/>
+        <v>70.031471280541368</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="7"/>
+        <v>1.4279294461686621E-2</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="8"/>
+        <v>-2.6707544163585131</v>
+      </c>
+      <c r="O21">
+        <f xml:space="preserve"> -(-1001.4 * 8.314)</f>
+        <v>8325.6396000000004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>600</v>
       </c>
@@ -1212,8 +2735,20 @@
         <f t="shared" si="5"/>
         <v>306.8503642</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J22">
+        <f t="shared" si="6"/>
+        <v>70.378512842004881</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="7"/>
+        <v>1.420888222297243E-2</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="8"/>
+        <v>-2.5996443272584235</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>630</v>
       </c>
@@ -1247,8 +2782,20 @@
         <f t="shared" si="5"/>
         <v>322.00161660000003</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J23">
+        <f t="shared" si="6"/>
+        <v>70.714071529723427</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="7"/>
+        <v>1.4141456974085666E-2</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="8"/>
+        <v>-2.528231774526374</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>660</v>
       </c>
@@ -1282,8 +2829,20 @@
         <f t="shared" si="5"/>
         <v>336.70283180000001</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J24">
+        <f t="shared" si="6"/>
+        <v>71.028058557563966</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="7"/>
+        <v>1.4078943171304058E-2</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="8"/>
+        <v>-2.4674597361842796</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>690</v>
       </c>
@@ -1317,8 +2876,20 @@
         <f t="shared" si="5"/>
         <v>352.07910280000004</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J25">
+        <f t="shared" si="6"/>
+        <v>71.345213011713113</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="7"/>
+        <v>1.4016357339010604E-2</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="8"/>
+        <v>-2.4146345968026686</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>720</v>
       </c>
@@ -1352,8 +2923,20 @@
         <f t="shared" si="5"/>
         <v>368.05542340000005</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J26">
+        <f t="shared" si="6"/>
+        <v>71.66350826100026</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="7"/>
+        <v>1.3954103340265946E-2</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="8"/>
+        <v>-2.3465369805232283</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>750</v>
       </c>
@@ -1387,8 +2970,20 @@
         <f t="shared" si="5"/>
         <v>385.30684939999998</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J27">
+        <f t="shared" si="6"/>
+        <v>71.995358506655464</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="7"/>
+        <v>1.38897842964079E-2</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="8"/>
+        <v>-2.2886821878250543</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>780</v>
       </c>
@@ -1422,8 +3017,20 @@
         <f t="shared" si="5"/>
         <v>401.80821340000006</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J28">
+        <f t="shared" si="6"/>
+        <v>72.302153431468469</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="7"/>
+        <v>1.3830846697364957E-2</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="8"/>
+        <v>-2.2284056948197941</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>810</v>
       </c>
@@ -1457,8 +3064,20 @@
         <f t="shared" si="5"/>
         <v>421.53484400000002</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J29">
+        <f t="shared" si="6"/>
+        <v>72.656353160630943</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="7"/>
+        <v>1.3763421318286766E-2</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="8"/>
+        <v>-2.1663074747014979</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>840</v>
       </c>
@@ -1492,8 +3111,20 @@
         <f t="shared" si="5"/>
         <v>436.76110259999996</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J30">
+        <f t="shared" si="6"/>
+        <v>72.921077017961665</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="7"/>
+        <v>1.3713456258383067E-2</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="8"/>
+        <v>-2.1094884630321324</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>870</v>
       </c>
@@ -1527,8 +3158,20 @@
         <f t="shared" si="5"/>
         <v>453.78751</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J31">
+        <f t="shared" si="6"/>
+        <v>73.20878692942938</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="7"/>
+        <v>1.3659562491644121E-2</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="8"/>
+        <v>-2.0533840073605463</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>900</v>
       </c>
@@ -1562,8 +3205,20 @@
         <f t="shared" si="5"/>
         <v>472.31404140000001</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J32">
+        <f t="shared" si="6"/>
+        <v>73.512540067330193</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="7"/>
+        <v>1.3603121305345989E-2</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="8"/>
+        <v>-1.9987836386623814</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>930</v>
       </c>
@@ -1597,8 +3252,20 @@
         <f t="shared" si="5"/>
         <v>489.41545500000001</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J33">
+        <f t="shared" si="6"/>
+        <v>73.784892222756824</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="7"/>
+        <v>1.3552909950467866E-2</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="8"/>
+        <v>-1.9568699892916552</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>960</v>
       </c>
@@ -1632,8 +3299,20 @@
         <f t="shared" si="5"/>
         <v>508.0919988</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J34">
+        <f t="shared" si="6"/>
+        <v>74.074099116489236</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="7"/>
+        <v>1.3499995436021379E-2</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="8"/>
+        <v>-1.8991219875565544</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>990</v>
       </c>
@@ -1667,8 +3346,20 @@
         <f t="shared" si="5"/>
         <v>527.36859220000008</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J35">
+        <f t="shared" si="6"/>
+        <v>74.36416768829794</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="7"/>
+        <v>1.3447336682252163E-2</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="8"/>
+        <v>-1.8515094736338289</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1020</v>
       </c>
@@ -1702,8 +3393,20 @@
         <f t="shared" si="5"/>
         <v>545.9701298</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J36">
+        <f t="shared" si="6"/>
+        <v>74.636478414446273</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="7"/>
+        <v>1.3398274158209008E-2</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="8"/>
+        <v>-1.7999932741551585</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1050</v>
       </c>
@@ -1737,8 +3440,20 @@
         <f t="shared" si="5"/>
         <v>564.79668600000002</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J37">
+        <f t="shared" si="6"/>
+        <v>74.904953292827258</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="7"/>
+        <v>1.3350251966524595E-2</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="8"/>
+        <v>-1.7561992938295041</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1080</v>
       </c>
@@ -1772,8 +3487,20 @@
         <f t="shared" si="5"/>
         <v>583.77325459999997</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J38">
+        <f t="shared" si="6"/>
+        <v>75.168740618254176</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="7"/>
+        <v>1.3303402342185274E-2</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="8"/>
+        <v>-1.7076021612213317</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1110</v>
       </c>
@@ -1807,8 +3534,20 @@
         <f t="shared" si="5"/>
         <v>603.12485420000007</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J39">
+        <f t="shared" si="6"/>
+        <v>75.431094417641859</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="7"/>
+        <v>1.3257132323485413E-2</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="8"/>
+        <v>-1.6623114020411685</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1140</v>
       </c>
@@ -1842,8 +3581,20 @@
         <f t="shared" si="5"/>
         <v>622.55146000000002</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J40">
+        <f t="shared" si="6"/>
+        <v>75.688099454152962</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="7"/>
+        <v>1.3212116663145129E-2</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="8"/>
+        <v>-1.6570537663757636</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1170</v>
       </c>
@@ -1877,8 +3628,20 @@
         <f t="shared" si="5"/>
         <v>641.45302240000001</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J41">
+        <f t="shared" si="6"/>
+        <v>75.932374902602177</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="7"/>
+        <v>1.3169613110121889E-2</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="8"/>
+        <v>-1.579879110192556</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1200</v>
       </c>
@@ -1912,8 +3675,20 @@
         <f t="shared" si="5"/>
         <v>660.42959100000007</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J42">
+        <f t="shared" si="6"/>
+        <v>76.172187045867375</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="7"/>
+        <v>1.312815134739201E-2</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="8"/>
+        <v>-1.5385135740974016</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1230</v>
       </c>
@@ -1947,8 +3722,20 @@
         <f t="shared" si="5"/>
         <v>679.48116579999999</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J43">
+        <f t="shared" si="6"/>
+        <v>76.407752722096831</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="7"/>
+        <v>1.3087677158064142E-2</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="8"/>
+        <v>-1.4956628981752556</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1260</v>
       </c>
@@ -1982,8 +3769,20 @@
         <f t="shared" si="5"/>
         <v>702.1330382000001</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J44">
+        <f t="shared" si="6"/>
+        <v>76.681421189111006</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="7"/>
+        <v>1.3040968522659607E-2</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="8"/>
+        <v>-1.4524341636244353</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1290</v>
       </c>
@@ -2017,8 +3816,20 @@
         <f t="shared" si="5"/>
         <v>721.70965640000009</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J45">
+        <f t="shared" si="6"/>
+        <v>76.912615581988618</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="7"/>
+        <v>1.3001768207115554E-2</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="8"/>
+        <v>-1.4138711288901249</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1320</v>
       </c>
@@ -2052,8 +3863,20 @@
         <f t="shared" si="5"/>
         <v>742.18634900000006</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J46">
+        <f t="shared" si="6"/>
+        <v>77.149434478444661</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="7"/>
+        <v>1.2961857812183928E-2</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="8"/>
+        <v>-1.3775328554513178</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1350</v>
       </c>
@@ -2080,15 +3903,28 @@
         <v>1.0179</v>
       </c>
       <c r="H47">
-        <f t="shared" ref="H47" si="6">F47*750.062</f>
+        <f t="shared" ref="H47" si="9">F47*750.062</f>
         <v>196.14121300000002</v>
       </c>
       <c r="I47">
-        <f t="shared" ref="I47" si="7">G47*750.062</f>
+        <f t="shared" ref="I47" si="10">G47*750.062</f>
         <v>763.48810980000007</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="6"/>
+        <v>77.390631733382307</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="7"/>
+        <v>1.2921460616125865E-2</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="8"/>
+        <v>-1.3413209954771594</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/PC2/MDGE/Argon/Argon.xlsx
+++ b/PC2/MDGE/Argon/Argon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Studium\5. Semester\AC II lab\Protokolle\PC2\MDGE\Argon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD5ABFA-9591-4F6F-8848-662453F963F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBCD0824-2647-4C19-A138-A4EBCFC78025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BB391474-3FBC-4011-8610-F4BFDA75DF25}"/>
   </bookViews>

--- a/PC2/MDGE/Argon/Argon.xlsx
+++ b/PC2/MDGE/Argon/Argon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Studium\5. Semester\AC II lab\Protokolle\PC2\MDGE\Argon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBCD0824-2647-4C19-A138-A4EBCFC78025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F150F1E4-017C-4441-AFB0-F2E6D1AF9820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BB391474-3FBC-4011-8610-F4BFDA75DF25}"/>
   </bookViews>
@@ -606,7 +606,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1711,7 +1711,7 @@
   <dimension ref="A1:O47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+      <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/PC2/MDGE/Argon/Argon.xlsx
+++ b/PC2/MDGE/Argon/Argon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Studium\5. Semester\AC II lab\Protokolle\PC2\MDGE\Argon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F150F1E4-017C-4441-AFB0-F2E6D1AF9820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C54BDBEB-8FB2-449F-B590-5FC745CC786B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BB391474-3FBC-4011-8610-F4BFDA75DF25}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>t / s</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>Ln pAr</t>
+  </si>
+  <si>
+    <t>y = -1001,4x + 11,616</t>
   </si>
 </sst>
 </file>
@@ -190,43 +193,7 @@
             </c:spPr>
             <c:trendlineType val="linear"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="3.5211067366579175E-2"/>
-                  <c:y val="0.16577026829979585"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="de-DE"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -544,7 +511,7 @@
         <c:axId val="1234507599"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="1.2000000000000002E-2"/>
+          <c:min val="1.2500000000000002E-2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -648,6 +615,7 @@
         <c:axId val="1234508559"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="-0.1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -672,7 +640,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-DE"/>
-                  <a:t>Ln(p) [bar]</a:t>
+                  <a:t>Ln(p)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -746,6 +714,8 @@
         <c:crossAx val="1234507599"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.5"/>
+        <c:minorUnit val="0.5"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1708,10 +1678,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0470E75E-7BBB-4868-AE4E-3077389C1B78}">
-  <dimension ref="A1:O47"/>
+  <dimension ref="A1:P47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="T20" sqref="T20"/>
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2462,7 +2432,7 @@
         <v>-3.0344731018704216</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>450</v>
       </c>
@@ -2509,7 +2479,7 @@
         <v>-2.9584364888102939</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>480</v>
       </c>
@@ -2556,7 +2526,7 @@
         <v>-2.8735146408297418</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>510</v>
       </c>
@@ -2603,7 +2573,7 @@
         <v>-2.8067661740413676</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>540</v>
       </c>
@@ -2650,7 +2620,7 @@
         <v>-2.7364496756239078</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>570</v>
       </c>
@@ -2701,7 +2671,7 @@
         <v>8325.6396000000004</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>600</v>
       </c>
@@ -2747,8 +2717,11 @@
         <f t="shared" si="8"/>
         <v>-2.5996443272584235</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>630</v>
       </c>
@@ -2795,7 +2768,7 @@
         <v>-2.528231774526374</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>660</v>
       </c>
@@ -2842,7 +2815,7 @@
         <v>-2.4674597361842796</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>690</v>
       </c>
@@ -2889,7 +2862,7 @@
         <v>-2.4146345968026686</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>720</v>
       </c>
@@ -2936,7 +2909,7 @@
         <v>-2.3465369805232283</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>750</v>
       </c>
@@ -2983,7 +2956,7 @@
         <v>-2.2886821878250543</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>780</v>
       </c>
@@ -3030,7 +3003,7 @@
         <v>-2.2284056948197941</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>810</v>
       </c>
@@ -3077,7 +3050,7 @@
         <v>-2.1663074747014979</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>840</v>
       </c>
@@ -3124,7 +3097,7 @@
         <v>-2.1094884630321324</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>870</v>
       </c>
@@ -3171,7 +3144,7 @@
         <v>-2.0533840073605463</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>900</v>
       </c>
